--- a/Output_FIle/Broken_links_imgs.xlsx
+++ b/Output_FIle/Broken_links_imgs.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spv\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spv\eclipse-workspace\Broken_images_Links\Input_File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C1F521-DB8C-4A5C-817F-95270834589A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022965F8-D4A7-4905-9118-4935348DD7DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{3BCA9752-AD6E-47F3-A092-1292F6497DF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3BCA9752-AD6E-47F3-A092-1292F6497DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="brokenlinks0" r:id="rId5" sheetId="2"/>
+    <sheet name="ConsoleError0" r:id="rId6" sheetId="3"/>
+    <sheet name="brokenlinks1" r:id="rId7" sheetId="4"/>
+    <sheet name="ConsoleError1" r:id="rId8" sheetId="5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,53 +34,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="112">
+  <si>
+    <t>https://us.allegion.com/en/home.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/products/brands/schlage.html</t>
+  </si>
+  <si>
+    <t>website in test ---&gt;https://us.allegion.com/en/home.html</t>
+  </si>
+  <si>
+    <t>Page Load Time : 4.5 seconds</t>
+  </si>
+  <si>
+    <t>size of full links and images ---&gt;115</t>
+  </si>
+  <si>
+    <t>size of active links and images ---&gt;88</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>RESPONSE</t>
+  </si>
+  <si>
+    <t>RESPONSE CODE</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/login.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/locator.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/document-library/all-documents.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home.html#</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/alliances.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/training.html</t>
+  </si>
   <si>
     <t>https://us.allegion.com/en/home/products/brands/advantage.html</t>
   </si>
   <si>
-    <t>website in test ---&gt;https://us.allegion.com/en/home/products/brands/advantage.html</t>
-  </si>
-  <si>
-    <t>size of full links and images ---&gt;91</t>
-  </si>
-  <si>
-    <t>size of active links and images ---&gt;71</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>RESPONSE</t>
-  </si>
-  <si>
-    <t>RESPONSE CODE</t>
-  </si>
-  <si>
-    <t>https://us.allegion.com/en/home.html</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>https://us.allegion.com/en/home/login.html</t>
-  </si>
-  <si>
-    <t>https://us.allegion.com/en/home/locator.html</t>
-  </si>
-  <si>
-    <t>https://us.allegion.com/en/home/document-library/all-documents.html</t>
-  </si>
-  <si>
-    <t>https://us.allegion.com/en/home/products/brands/advantage.html#</t>
-  </si>
-  <si>
-    <t>https://us.allegion.com/en/home/alliances.html</t>
-  </si>
-  <si>
-    <t>https://us.allegion.com/en/home/training.html</t>
-  </si>
-  <si>
     <t>https://us.allegion.com/en/home/products/brands/falcon.html</t>
   </si>
   <si>
@@ -99,9 +108,6 @@
     <t>https://us.allegion.com/en/home/products/brands/republic.html</t>
   </si>
   <si>
-    <t>https://us.allegion.com/en/home/products/brands/schlage.html</t>
-  </si>
-  <si>
     <t>https://us.allegion.com/en/home/products/brands/steelcraft.html</t>
   </si>
   <si>
@@ -222,10 +228,49 @@
     <t>https://us.allegion.com/en/home/support/contact-us.html</t>
   </si>
   <si>
-    <t>https://us.allegion.com/content/dam/allegion-us-2/web-documents-2/Catalog/Advantage_Lites_Louvers_Catalog_110968.pdf</t>
-  </si>
-  <si>
-    <t>http://www.a-ll.com/</t>
+    <t>https://us.allegion.com/en/home/newsroom/2018/BackToBasics.html?cq_ck=1548696471024.html</t>
+  </si>
+  <si>
+    <t>https://instructions.allegion.com/instr/150/0</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/document-library/all-documents-by-brand.html</t>
+  </si>
+  <si>
+    <t>http://discover-overtur.allegion.com/</t>
+  </si>
+  <si>
+    <t>Found</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home.html#myCarousel</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/content/dam/allegion-us-2/web-documents-2/Article/Allegion_Q3_2018_Wireless_Infographic_112343.pdf</t>
+  </si>
+  <si>
+    <t>https://usmarketing.allegion.com/acton/fs/blocks/showLandingPage/a/17877/p/p-0156/t/page/fm/0?sid=TV2:SZDUxyE5o</t>
+  </si>
+  <si>
+    <t>https://www.campussafetymagazine.com/webcast/securing-the-weakest-link-in-k-12-schools</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/trade/architect-old/sustainable-building.html</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/trade/architect/resources/sustainable-building.html</t>
+  </si>
+  <si>
+    <t>http://idighardware.com/</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/content/dam/allegion-us-2/web-documents-2/case-studies/Allegion_Iowa_Western_Community_College_Case_Study_113257.pdf</t>
   </si>
   <si>
     <t>http://www.allegion.com/corp/en/about.html</t>
@@ -259,6 +304,72 @@
   </si>
   <si>
     <t>https://www.allegion.com/corp/en/footer/policies.html</t>
+  </si>
+  <si>
+    <t>Console Errors captured--&gt;</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 16:18:41 IST 2019 WARNING https://assets.adobedtm.com/5a3d000522eac1e7c7a61679f8c4787ea943dedb/satelliteLib-0d7994c2a98742d892f11c43800b42e3808127d5.js 2 A parser-blocking, cross site (i.e. different eTLD+1) script, https://optanon.blob.core.windows.net/consent/76f75a0c-19df-4e11-a46e-98f467f6fca3.js, is invoked via document.write. The network request for this script MAY be blocked by the browser in this or a future page load due to poor network connectivity. If blocked in this page load, it will be confirmed in a subsequent console message. See https://www.chromestatus.com/feature/5718547946799104 for more details.</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 16:18:43 IST 2019 SEVERE https://us.allegion.com/home/users/-/-vFCHA2G-MvMYxRGDmck.infinity.json - Failed to load resource: the server responded with a status of 404 ()</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 16:18:45 IST 2019 WARNING https://us2allegion.inbenta.com/assets/js/inbenta.js?1537575154 2 Mixed Content: The page at 'https://us.allegion.com/en/home.html' was loaded over a secure connection, but contains a form that targets an insecure endpoint 'http://us.allegion.com/en/home/support/library.html'. This endpoint should be made available over a secure connection.</t>
+  </si>
+  <si>
+    <t>website in test ---&gt;https://us.allegion.com/en/home/products/brands/schlage.html</t>
+  </si>
+  <si>
+    <t>Page Load Time : 3.105 seconds</t>
+  </si>
+  <si>
+    <t>size of full links and images ---&gt;121</t>
+  </si>
+  <si>
+    <t>size of active links and images ---&gt;79</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/products/brands/schlage.html#</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/products/categories/credentials/schlage-smart-credentials.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/products/categories/biometrics/schlage-g-series.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/products/categories/biometrics/schlage-f-series.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/products/categories/biometrics/schlage-handkeyII.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/products/categories/biometrics/schlage-handnet-for-windows.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/products/categories/credentials/schlage-multi-tech-credentials.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/products/categories/credentials/schlage-proximity-credentials.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/products/categories/credentials/schlage-mobile-credentials.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/products/categories/electromagnetic-locks/schlage-m400.html</t>
+  </si>
+  <si>
+    <t>https://us.allegion.com/en/home/products/categories/electromagnetic-locks/schlage-m390rfk.html</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 16:19:57 IST 2019 WARNING https://assets.adobedtm.com/5a3d000522eac1e7c7a61679f8c4787ea943dedb/satelliteLib-0d7994c2a98742d892f11c43800b42e3808127d5.js 2 A parser-blocking, cross site (i.e. different eTLD+1) script, https://optanon.blob.core.windows.net/consent/76f75a0c-19df-4e11-a46e-98f467f6fca3.js, is invoked via document.write. The network request for this script MAY be blocked by the browser in this or a future page load due to poor network connectivity. If blocked in this page load, it will be confirmed in a subsequent console message. See https://www.chromestatus.com/feature/5718547946799104 for more details.</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 16:19:58 IST 2019 SEVERE https://us.allegion.com/home/users/-/-vFCHA2G-MvMYxRGDmck.infinity.json - Failed to load resource: the server responded with a status of 404 ()</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 16:19:59 IST 2019 WARNING https://us2allegion.inbenta.com/assets/js/inbenta.js?1537575156 2 Mixed Content: The page at 'https://us.allegion.com/en/home/products/brands/schlage.html' was loaded over a secure connection, but contains a form that targets an insecure endpoint 'http://us.allegion.com/en/home/support/library.html'. This endpoint should be made available over a secure connection.</t>
   </si>
 </sst>
 </file>
@@ -622,9 +733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB50C8-7697-4302-9A01-590AE36C5834}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -633,14 +746,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{AB4C5EE0-21CE-4876-9A88-C54E2C63D0B9}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{0AB4F65A-AA07-4306-B52D-4CB4408DC7BA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -648,47 +770,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>200.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>200.0</v>
@@ -696,10 +812,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>200.0</v>
@@ -710,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>200.0</v>
@@ -721,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>200.0</v>
@@ -732,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>200.0</v>
@@ -740,10 +856,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>200.0</v>
@@ -751,10 +867,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>200.0</v>
@@ -762,10 +878,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>200.0</v>
@@ -776,7 +892,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
         <v>200.0</v>
@@ -787,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
         <v>200.0</v>
@@ -795,10 +911,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
         <v>200.0</v>
@@ -806,10 +922,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
         <v>200.0</v>
@@ -817,10 +933,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>200.0</v>
@@ -828,10 +944,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>200.0</v>
@@ -839,10 +955,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>200.0</v>
@@ -850,10 +966,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
         <v>200.0</v>
@@ -861,10 +977,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n">
         <v>200.0</v>
@@ -872,10 +988,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
         <v>200.0</v>
@@ -883,10 +999,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
         <v>200.0</v>
@@ -894,10 +1010,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="n">
         <v>200.0</v>
@@ -905,10 +1021,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
         <v>200.0</v>
@@ -919,7 +1035,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
         <v>200.0</v>
@@ -930,7 +1046,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
         <v>200.0</v>
@@ -941,7 +1057,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
         <v>200.0</v>
@@ -952,7 +1068,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
         <v>200.0</v>
@@ -963,7 +1079,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="n">
         <v>200.0</v>
@@ -974,7 +1090,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
         <v>200.0</v>
@@ -985,7 +1101,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="n">
         <v>200.0</v>
@@ -996,7 +1112,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
         <v>200.0</v>
@@ -1007,7 +1123,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="n">
         <v>200.0</v>
@@ -1018,7 +1134,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="n">
         <v>200.0</v>
@@ -1029,7 +1145,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="n">
         <v>200.0</v>
@@ -1040,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
         <v>200.0</v>
@@ -1051,7 +1167,7 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="n">
         <v>200.0</v>
@@ -1062,7 +1178,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="n">
         <v>200.0</v>
@@ -1073,7 +1189,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="n">
         <v>200.0</v>
@@ -1084,7 +1200,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="n">
         <v>200.0</v>
@@ -1095,7 +1211,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="n">
         <v>200.0</v>
@@ -1106,7 +1222,7 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="n">
         <v>200.0</v>
@@ -1117,7 +1233,7 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="n">
         <v>200.0</v>
@@ -1128,7 +1244,7 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="n">
         <v>200.0</v>
@@ -1139,21 +1255,21 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>503.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
         <v>46</v>
       </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
       <c r="C49" t="n">
-        <v>200.0</v>
+        <v>503.0</v>
       </c>
     </row>
     <row r="50">
@@ -1161,7 +1277,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="n">
         <v>200.0</v>
@@ -1172,7 +1288,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="n">
         <v>200.0</v>
@@ -1183,7 +1299,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="n">
         <v>200.0</v>
@@ -1194,7 +1310,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="n">
         <v>200.0</v>
@@ -1205,7 +1321,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="n">
         <v>200.0</v>
@@ -1216,7 +1332,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="n">
         <v>200.0</v>
@@ -1227,7 +1343,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="n">
         <v>200.0</v>
@@ -1238,7 +1354,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="n">
         <v>200.0</v>
@@ -1249,7 +1365,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="n">
         <v>200.0</v>
@@ -1260,7 +1376,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="n">
         <v>200.0</v>
@@ -1271,18 +1387,18 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>302.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
         <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>58</v>
       </c>
       <c r="C61" t="n">
         <v>302.0</v>
@@ -1293,10 +1409,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C62" t="n">
-        <v>200.0</v>
+        <v>302.0</v>
       </c>
     </row>
     <row r="63">
@@ -1304,7 +1420,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="n">
         <v>200.0</v>
@@ -1315,7 +1431,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="n">
         <v>200.0</v>
@@ -1326,7 +1442,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="n">
         <v>200.0</v>
@@ -1337,7 +1453,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="n">
         <v>200.0</v>
@@ -1348,29 +1464,29 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>301.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C68" t="n">
-        <v>301.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="n">
         <v>200.0</v>
@@ -1378,10 +1494,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="n">
         <v>200.0</v>
@@ -1389,10 +1505,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="n">
         <v>200.0</v>
@@ -1400,21 +1516,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C72" t="n">
-        <v>999.0</v>
+        <v>302.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="n">
         <v>200.0</v>
@@ -1422,10 +1538,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="n">
         <v>200.0</v>
@@ -1433,10 +1549,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="n">
         <v>200.0</v>
@@ -1444,13 +1560,1210 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" t="n">
+        <v>403.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
         <v>75</v>
       </c>
+      <c r="C79" t="n">
+        <v>404.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" t="n">
+        <v>403.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" t="n">
+        <v>301.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" t="n">
+        <v>301.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" t="n">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="n">
+        <v>503.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>302.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="n">
+        <v>302.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C76" t="n">
-        <v>200.0</v>
+        <v>301.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="n">
+        <v>301.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="n">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
